--- a/Study/과제_20231016-3단계인수/Config.xlsx
+++ b/Study/과제_20231016-3단계인수/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\uipath\git\Study\과제_20231016-3단계인수\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFFA223-4C44-4248-8199-866380CA2C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0211ECEF-8B7D-4ED6-A41A-A22134D2F495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="2700" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{C0C10FE0-0580-4308-9131-6C8ECD258B6C}"/>
+    <workbookView xWindow="5955" yWindow="2655" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{C0C10FE0-0580-4308-9131-6C8ECD258B6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Setting" sheetId="2" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{0}에 태어난 {1}의 유니콘 이름은 {3} 입니다.</t>
+    <t>{0}에 태어난 {1}의 유니콘 이름은 {2} 입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
